--- a/Data/TrimCurveModifiedSample.xlsx
+++ b/Data/TrimCurveModifiedSample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Speed</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Draft(m)</t>
-  </si>
-  <si>
-    <t>This text was added by using code</t>
   </si>
 </sst>
 </file>
@@ -360,59 +357,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10200</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>10400</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>10600</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>10800</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>11000</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(C3-$C$6)/$C$6</f>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="0">(D3-$D$6)/$D$6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="1">(E3-$E$6)/$E$6</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="2">(F3-$F$6)/$F$6</f>
+        <v>0.06</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="3">(G3-$G$6)/$G$6</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="4">(H3-$H$6)/$H$6</f>
+        <v>5.7692307692307696E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -420,49 +462,49 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
+        <v>9800</v>
+      </c>
+      <c r="D4">
         <v>10000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10200</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10400</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10600</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10800</v>
       </c>
-      <c r="H4">
-        <v>11000</v>
-      </c>
       <c r="J4" s="1">
-        <f>(C4-$C$7)/$C$7</f>
-        <v>6.3829787234042548E-2</v>
+        <f t="shared" ref="J4:J9" si="5">(C4-$C$6)/$C$6</f>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K10" si="0">(D4-$D$7)/$D$7</f>
-        <v>6.25E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L10" si="1">(E4-$E$7)/$E$7</f>
-        <v>6.1224489795918366E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M10" si="2">(F4-$F$7)/$F$7</f>
-        <v>0.06</v>
+        <f t="shared" si="2"/>
+        <v>0.04</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N10" si="3">(G4-$G$7)/$G$7</f>
-        <v>5.8823529411764705E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O10" si="4">(H4-$H$7)/$H$7</f>
-        <v>5.7692307692307696E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -470,49 +512,49 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>9600</v>
+      </c>
+      <c r="D5">
         <v>9800</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10200</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10400</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10600</v>
       </c>
-      <c r="H5">
-        <v>10800</v>
-      </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J10" si="5">(C5-$C$7)/$C$7</f>
-        <v>4.2553191489361701E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>4.0816326530612242E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>3.9215686274509803E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="4"/>
-        <v>3.8461538461538464E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -520,49 +562,49 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
+        <v>9400</v>
+      </c>
+      <c r="D6">
         <v>9600</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9800</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10200</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10400</v>
-      </c>
-      <c r="H6">
-        <v>10600</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="5"/>
-        <v>2.1276595744680851E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>2.0408163265306121E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>1.9607843137254902E-2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="4"/>
-        <v>1.9230769230769232E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -570,49 +612,49 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
+        <v>9200</v>
+      </c>
+      <c r="D7">
         <v>9400</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9600</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9800</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10200</v>
-      </c>
-      <c r="H7">
-        <v>10400</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.1276595744680851E-2</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.0833333333333332E-2</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0408163265306121E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.9607843137254902E-2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -620,49 +662,49 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C8">
+        <v>9000</v>
+      </c>
+      <c r="D8">
         <v>9200</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9400</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9600</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9800</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10000</v>
-      </c>
-      <c r="H8">
-        <v>10200</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="5"/>
-        <v>-2.1276595744680851E-2</v>
+        <v>-4.2553191489361701E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0833333333333332E-2</v>
+        <v>-4.1666666666666664E-2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>-2.0408163265306121E-2</v>
+        <v>-4.0816326530612242E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="2"/>
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>-1.9607843137254902E-2</v>
+        <v>-3.9215686274509803E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>-1.9230769230769232E-2</v>
+        <v>-3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -670,99 +712,99 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C9">
+        <v>8800</v>
+      </c>
+      <c r="D9">
         <v>9000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9200</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>9400</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9600</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9800</v>
-      </c>
-      <c r="H9">
-        <v>10000</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="5"/>
-        <v>-4.2553191489361701E-2</v>
+        <v>-6.3829787234042548E-2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666664E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0816326530612242E-2</v>
+        <v>-6.1224489795918366E-2</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>-3.9215686274509803E-2</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="4"/>
-        <v>-3.8461538461538464E-2</v>
+        <v>-5.7692307692307696E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>8800</v>
+        <v>11000</v>
       </c>
       <c r="D10">
-        <v>9000</v>
+        <v>11050</v>
       </c>
       <c r="E10">
-        <v>9200</v>
+        <v>11100</v>
       </c>
       <c r="F10">
-        <v>9400</v>
+        <v>11150</v>
       </c>
       <c r="G10">
-        <v>9600</v>
+        <v>11200</v>
       </c>
       <c r="H10">
-        <v>9800</v>
+        <v>11250</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>-6.3829787234042548E-2</v>
+        <f>(C10-$C$13)/$C$13</f>
+        <v>1.3824884792626729E-2</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.25E-2</v>
+        <f>(D10-$D$13)/$D$13</f>
+        <v>1.3761467889908258E-2</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.1224489795918366E-2</v>
+        <f>(E10-$E$13)/$E$13</f>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.06</v>
+        <f>(F10-$F$13)/$F$13</f>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.8823529411764705E-2</v>
+        <f>(G10-$G$13)/$G$13</f>
+        <v>1.3574660633484163E-2</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
-        <v>-5.7692307692307696E-2</v>
+        <f>(H10-$H$13)/$H$13</f>
+        <v>1.3513513513513514E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -770,49 +812,49 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
+        <v>10950</v>
+      </c>
+      <c r="D11">
         <v>11000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11050</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>11100</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11150</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>11200</v>
       </c>
-      <c r="H11">
-        <v>11250</v>
-      </c>
       <c r="J11" s="1">
-        <f>(C11-$C$14)/$C$14</f>
-        <v>1.3824884792626729E-2</v>
+        <f t="shared" ref="J11:J16" si="6">(C11-$C$13)/$C$13</f>
+        <v>9.2165898617511521E-3</v>
       </c>
       <c r="K11" s="1">
-        <f>(D11-$D$14)/$D$14</f>
-        <v>1.3761467889908258E-2</v>
+        <f t="shared" ref="K11:K16" si="7">(D11-$D$13)/$D$13</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="L11" s="1">
-        <f>(E11-$E$14)/$E$14</f>
-        <v>1.3698630136986301E-2</v>
+        <f t="shared" ref="L11:L16" si="8">(E11-$E$13)/$E$13</f>
+        <v>9.1324200913242004E-3</v>
       </c>
       <c r="M11" s="1">
-        <f>(F11-$F$14)/$F$14</f>
-        <v>1.3636363636363636E-2</v>
+        <f t="shared" ref="M11:M16" si="9">(F11-$F$13)/$F$13</f>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="N11" s="1">
-        <f>(G11-$G$14)/$G$14</f>
-        <v>1.3574660633484163E-2</v>
+        <f t="shared" ref="N11:N16" si="10">(G11-$G$13)/$G$13</f>
+        <v>9.0497737556561094E-3</v>
       </c>
       <c r="O11" s="1">
-        <f>(H11-$H$14)/$H$14</f>
-        <v>1.3513513513513514E-2</v>
+        <f t="shared" ref="O11:O16" si="11">(H11-$H$13)/$H$13</f>
+        <v>9.0090090090090089E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -820,49 +862,49 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
+        <v>10900</v>
+      </c>
+      <c r="D12">
         <v>10950</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>11000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11050</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>11100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11150</v>
       </c>
-      <c r="H12">
-        <v>11200</v>
-      </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:J17" si="6">(C12-$C$14)/$C$14</f>
-        <v>9.2165898617511521E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.608294930875576E-3</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K17" si="7">(D12-$D$14)/$D$14</f>
-        <v>9.1743119266055051E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.5871559633027525E-3</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:L17" si="8">(E12-$E$14)/$E$14</f>
-        <v>9.1324200913242004E-3</v>
+        <f t="shared" si="8"/>
+        <v>4.5662100456621002E-3</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" ref="M12:M17" si="9">(F12-$F$14)/$F$14</f>
-        <v>9.0909090909090905E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:N17" si="10">(G12-$G$14)/$G$14</f>
-        <v>9.0497737556561094E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12:O17" si="11">(H12-$H$14)/$H$14</f>
-        <v>9.0090090090090089E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.5045045045045045E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -870,49 +912,49 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
+        <v>10850</v>
+      </c>
+      <c r="D13">
         <v>10900</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>10950</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>11050</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11100</v>
-      </c>
-      <c r="H13">
-        <v>11150</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="6"/>
-        <v>4.608294930875576E-3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="7"/>
-        <v>4.5871559633027525E-3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="8"/>
-        <v>4.5662100456621002E-3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="9"/>
-        <v>4.5454545454545452E-3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="10"/>
-        <v>4.5248868778280547E-3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="11"/>
-        <v>4.5045045045045045E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -920,49 +962,49 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C14">
+        <v>10800</v>
+      </c>
+      <c r="D14">
         <v>10850</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10900</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10950</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11050</v>
-      </c>
-      <c r="H14">
-        <v>11100</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4.608294930875576E-3</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4.5871559633027525E-3</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4.5662100456621002E-3</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4.5454545454545452E-3</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4.5248868778280547E-3</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-4.5045045045045045E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -970,49 +1012,50 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C15">
+        <v>10750</v>
+      </c>
+      <c r="D15">
         <v>10800</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10850</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10900</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10950</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>11000</v>
       </c>
-      <c r="H15">
-        <v>11050</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1">
         <f t="shared" si="6"/>
-        <v>-4.608294930875576E-3</v>
+        <v>-9.2165898617511521E-3</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="7"/>
-        <v>-4.5871559633027525E-3</v>
+        <v>-9.1743119266055051E-3</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="8"/>
-        <v>-4.5662100456621002E-3</v>
+        <v>-9.1324200913242004E-3</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="9"/>
-        <v>-4.5454545454545452E-3</v>
+        <v>-9.0909090909090905E-3</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="10"/>
-        <v>-4.5248868778280547E-3</v>
+        <v>-9.0497737556561094E-3</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="11"/>
-        <v>-4.5045045045045045E-3</v>
+        <v>-9.0090090090090089E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1020,101 +1063,101 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C16">
+        <v>10700</v>
+      </c>
+      <c r="D16">
         <v>10750</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10800</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10850</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10900</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10950</v>
-      </c>
-      <c r="H16">
-        <v>11000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
         <f t="shared" si="6"/>
-        <v>-9.2165898617511521E-3</v>
+        <v>-1.3824884792626729E-2</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="7"/>
-        <v>-9.1743119266055051E-3</v>
+        <v>-1.3761467889908258E-2</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="8"/>
-        <v>-9.1324200913242004E-3</v>
+        <v>-1.3698630136986301E-2</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="9"/>
-        <v>-9.0909090909090905E-3</v>
+        <v>-1.3636363636363636E-2</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="10"/>
-        <v>-9.0497737556561094E-3</v>
+        <v>-1.3574660633484163E-2</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="11"/>
-        <v>-9.0090090090090089E-3</v>
+        <v>-1.3513513513513514E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="D17">
-        <v>10750</v>
+        <v>12100</v>
       </c>
       <c r="E17">
-        <v>10800</v>
+        <v>12200</v>
       </c>
       <c r="F17">
-        <v>10850</v>
+        <v>12300</v>
       </c>
       <c r="G17">
-        <v>10900</v>
+        <v>12400</v>
       </c>
       <c r="H17">
-        <v>10950</v>
+        <v>12500</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3824884792626729E-2</v>
+        <f>(C17-$C$20)/$C$20</f>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.3761467889908258E-2</v>
+        <f>(D17-$D$20)/$D$20</f>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.3698630136986301E-2</v>
+        <f>(E17-$E$20)/$E$20</f>
+        <v>2.5210084033613446E-2</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.3636363636363636E-2</v>
+        <f>(F17-$G$20)/$G$20</f>
+        <v>1.6528925619834711E-2</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.3574660633484163E-2</v>
+        <f>(G17-$G$20)/$G$20</f>
+        <v>2.4793388429752067E-2</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.3513513513513514E-2</v>
+        <f>(H17-$H$20)/$H$20</f>
+        <v>2.4590163934426229E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1122,50 +1165,50 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
+        <v>11900</v>
+      </c>
+      <c r="D18">
         <v>12000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>12100</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>12200</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>12300</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12400</v>
-      </c>
-      <c r="H18">
-        <v>12500</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f>(C18-$C$21)/$C$21</f>
-        <v>2.564102564102564E-2</v>
+        <f t="shared" ref="J18:J23" si="12">(C18-$C$20)/$C$20</f>
+        <v>1.7094017094017096E-2</v>
       </c>
       <c r="K18" s="1">
-        <f>(D18-$D$21)/$D$21</f>
-        <v>2.5423728813559324E-2</v>
+        <f t="shared" ref="K18:K23" si="13">(D18-$D$20)/$D$20</f>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="L18" s="1">
-        <f>(E18-$E$21)/$E$21</f>
-        <v>2.5210084033613446E-2</v>
+        <f t="shared" ref="L18:L23" si="14">(E18-$E$20)/$E$20</f>
+        <v>1.680672268907563E-2</v>
       </c>
       <c r="M18" s="1">
-        <f>(F18-$G$21)/$G$21</f>
+        <f t="shared" ref="M18:M23" si="15">(F18-$G$20)/$G$20</f>
+        <v>8.2644628099173556E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N23" si="16">(G18-$G$20)/$G$20</f>
         <v>1.6528925619834711E-2</v>
       </c>
-      <c r="N18" s="1">
-        <f>(G18-$G$21)/$G$21</f>
-        <v>2.4793388429752067E-2</v>
-      </c>
       <c r="O18" s="1">
-        <f>(H18-$H$21)/$H$21</f>
-        <v>2.4590163934426229E-2</v>
+        <f t="shared" ref="O18:O23" si="17">(H18-$H$20)/$H$20</f>
+        <v>1.6393442622950821E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1173,50 +1216,50 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
+        <v>11800</v>
+      </c>
+      <c r="D19">
         <v>11900</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>12000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>12100</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>12200</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12300</v>
-      </c>
-      <c r="H19">
-        <v>12400</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f t="shared" ref="J19:J24" si="12">(C19-$C$21)/$C$21</f>
-        <v>1.7094017094017096E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.5470085470085479E-3</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" ref="K19:K24" si="13">(D19-$D$21)/$D$21</f>
-        <v>1.6949152542372881E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.4745762711864406E-3</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" ref="L19:L24" si="14">(E19-$E$21)/$E$21</f>
-        <v>1.680672268907563E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:M24" si="15">(F19-$G$21)/$G$21</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="16"/>
         <v>8.2644628099173556E-3</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19:N24" si="16">(G19-$G$21)/$G$21</f>
-        <v>1.6528925619834711E-2</v>
-      </c>
       <c r="O19" s="1">
-        <f t="shared" ref="O19:O24" si="17">(H19-$H$21)/$H$21</f>
-        <v>1.6393442622950821E-2</v>
+        <f t="shared" si="17"/>
+        <v>8.1967213114754103E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1224,50 +1267,50 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
+        <v>11700</v>
+      </c>
+      <c r="D20">
         <v>11800</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>11900</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>12100</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>12200</v>
-      </c>
-      <c r="H20">
-        <v>12300</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" si="12"/>
-        <v>8.5470085470085479E-3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="13"/>
-        <v>8.4745762711864406E-3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="14"/>
-        <v>8.4033613445378148E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-8.2644628099173556E-3</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="16"/>
-        <v>8.2644628099173556E-3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="17"/>
-        <v>8.1967213114754103E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1275,50 +1318,50 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C21">
+        <v>11600</v>
+      </c>
+      <c r="D21">
         <v>11700</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11800</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11900</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>12000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>12100</v>
-      </c>
-      <c r="H21">
-        <v>12200</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-8.5470085470085479E-3</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-8.4745762711864406E-3</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-8.4033613445378148E-3</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="15"/>
-        <v>-8.2644628099173556E-3</v>
+        <v>-1.6528925619834711E-2</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-8.2644628099173556E-3</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-8.1967213114754103E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1326,50 +1369,49 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C22">
+        <v>11500</v>
+      </c>
+      <c r="D22">
         <v>11600</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>11700</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>11800</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>11900</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>12000</v>
       </c>
-      <c r="H22">
-        <v>12100</v>
-      </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1">
         <f t="shared" si="12"/>
-        <v>-8.5470085470085479E-3</v>
+        <v>-1.7094017094017096E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="13"/>
-        <v>-8.4745762711864406E-3</v>
+        <v>-1.6949152542372881E-2</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="14"/>
-        <v>-8.4033613445378148E-3</v>
+        <v>-1.680672268907563E-2</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="15"/>
-        <v>-1.6528925619834711E-2</v>
+        <v>-2.4793388429752067E-2</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="16"/>
-        <v>-8.2644628099173556E-3</v>
+        <v>-1.6528925619834711E-2</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="17"/>
-        <v>-8.1967213114754103E-3</v>
+        <v>-1.6393442622950821E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1377,104 +1419,54 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C23">
+        <v>11400</v>
+      </c>
+      <c r="D23">
         <v>11500</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>11600</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>11700</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>11800</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>11900</v>
-      </c>
-      <c r="H23">
-        <v>12000</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="12"/>
-        <v>-1.7094017094017096E-2</v>
+        <v>-2.564102564102564E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="13"/>
-        <v>-1.6949152542372881E-2</v>
+        <v>-2.5423728813559324E-2</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="14"/>
-        <v>-1.680672268907563E-2</v>
+        <v>-2.5210084033613446E-2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="15"/>
-        <v>-2.4793388429752067E-2</v>
+        <v>-3.3057851239669422E-2</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="16"/>
-        <v>-1.6528925619834711E-2</v>
+        <v>-2.4793388429752067E-2</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="17"/>
-        <v>-1.6393442622950821E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>-3</v>
-      </c>
-      <c r="C24">
-        <v>11400</v>
-      </c>
-      <c r="D24">
-        <v>11500</v>
-      </c>
-      <c r="E24">
-        <v>11600</v>
-      </c>
-      <c r="F24">
-        <v>11700</v>
-      </c>
-      <c r="G24">
-        <v>11800</v>
-      </c>
-      <c r="H24">
-        <v>11900</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="12"/>
-        <v>-2.564102564102564E-2</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="13"/>
-        <v>-2.5423728813559324E-2</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="14"/>
-        <v>-2.5210084033613446E-2</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.3057851239669422E-2</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="16"/>
-        <v>-2.4793388429752067E-2</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="17"/>
         <v>-2.4590163934426229E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
